--- a/RUDN/Importance/Varible_f_reg_in_Southern Europe.xlsx
+++ b/RUDN/Importance/Varible_f_reg_in_Southern Europe.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="418">
   <si>
     <t>F-value</t>
   </si>
@@ -22,10 +22,25 @@
     <t>p-value</t>
   </si>
   <si>
+    <t>Health expenditure per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
+  </si>
+  <si>
+    <t>GNI per capita, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Net ODA received per capita (current US$)</t>
+  </si>
+  <si>
     <t>Net ODA received (% of GNI)</t>
   </si>
   <si>
-    <t>Net ODA received per capita (current US$)</t>
+    <t>GDP per capita (Current US$)</t>
   </si>
   <si>
     <t>Immunization, BCG (% of one-year-old children)</t>
@@ -34,115 +49,271 @@
     <t>Mortality rate, neonatal (per 1,000 live births)</t>
   </si>
   <si>
+    <t>Rural population (% of total population)</t>
+  </si>
+  <si>
     <t>Urban population (% of total)</t>
   </si>
   <si>
-    <t>Rural population (% of total population)</t>
-  </si>
-  <si>
-    <t>GNI per capita, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>GDP per capita (Current US$)</t>
+    <t>Net official development assistance received (current US$)</t>
   </si>
   <si>
     <t>Net official development assistance and official aid received (current US$)</t>
   </si>
   <si>
-    <t>Net official development assistance received (current US$)</t>
+    <t>Goods (excluding arms) admitted free of tariffs from developing countries (% total merchandise imports excluding arms)</t>
+  </si>
+  <si>
+    <t>Goods (excluding arms) admitted free of tariffs from least developed countries (% total merchandise imports excluding arms)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on clothing products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on textile products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on textile products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on clothing products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on agricultural products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on agricultural products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Tuberculosis treatment success rate (% of new cases)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Total debt service (% of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed post-secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed post-secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed post-secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed post-secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Employers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Employers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Mortality rate, infant (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>AIDS estimated deaths (UNAIDS estimates)</t>
+  </si>
+  <si>
+    <t>Population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Bilateral, sector-allocable ODA to basic social services (% of bilateral ODA commitments)</t>
+  </si>
+  <si>
+    <t>Net ODA provided to the least developed countries (% of donor GNI)</t>
+  </si>
+  <si>
+    <t>Net ODA provided, total (% of GNI)</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, primary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
   </si>
   <si>
     <t>External resources for health (% of total expenditure on health)</t>
   </si>
   <si>
-    <t>Total debt service (% of exports of goods, services and primary income)</t>
-  </si>
-  <si>
-    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
-  </si>
-  <si>
-    <t>Tuberculosis treatment success rate (% of new cases)</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000)</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Mortality rate, infant (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>AIDS estimated deaths (UNAIDS estimates)</t>
+    <t>Wage and salaried workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Female share of employment in senior and middle management (%)</t>
+  </si>
+  <si>
+    <t>Male population 80+</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Bilateral ODA commitments that is untied (% of bilateral ODA commitments)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (current US$)</t>
+  </si>
+  <si>
+    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
+  </si>
+  <si>
+    <t>GNI, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
+  </si>
+  <si>
+    <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
+  </si>
+  <si>
+    <t>Self-employed, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
+  </si>
+  <si>
+    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
+  </si>
+  <si>
+    <t>Self-employed, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
+  </si>
+  <si>
+    <t>Self-employed, female (% of female employment)</t>
   </si>
   <si>
     <t>Mortality rate, adult, male (per 1,000 male adults)</t>
   </si>
   <si>
+    <t>GDP (current US$)</t>
+  </si>
+  <si>
+    <t>Female population 80+</t>
+  </si>
+  <si>
+    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Urban population</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Male population 75-79</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) living with HIV</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, total</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Labor force, female</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, female</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
     <t>Mortality rate, adult, female (per 1,000 female adults)</t>
   </si>
   <si>
-    <t>Male population 80+</t>
-  </si>
-  <si>
-    <t>GNI, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita (current US$)</t>
-  </si>
-  <si>
-    <t>Female population 80+</t>
-  </si>
-  <si>
-    <t>GDP (current US$)</t>
-  </si>
-  <si>
-    <t>Net ODA provided to the least developed countries (% of donor GNI)</t>
-  </si>
-  <si>
-    <t>Urban population</t>
-  </si>
-  <si>
-    <t>Net ODA provided, total (% of GNI)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, male</t>
-  </si>
-  <si>
-    <t>Male population 75-79</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, total</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) living with HIV</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
-  </si>
-  <si>
-    <t>Children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Labor force, female</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, female</t>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Male population 40-44</t>
+  </si>
+  <si>
+    <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
   </si>
   <si>
     <t>Male population 45-49</t>
   </si>
   <si>
-    <t>Male population 40-44</t>
+    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
   </si>
   <si>
     <t>Female population 45-49</t>
   </si>
   <si>
+    <t>Children (0-14) living with HIV</t>
+  </si>
+  <si>
     <t>Female population 40-44</t>
   </si>
   <si>
-    <t>Children (0-14) living with HIV</t>
+    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
   </si>
   <si>
     <t>Labor force, total</t>
@@ -151,6 +322,24 @@
     <t>Female population 75-79</t>
   </si>
   <si>
+    <t>Male population 35-39</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Female population 35-39</t>
+  </si>
+  <si>
+    <t>Male population 60-64</t>
+  </si>
+  <si>
     <t>Male population 50-54</t>
   </si>
   <si>
@@ -160,733 +349,727 @@
     <t>Male population 65-69</t>
   </si>
   <si>
-    <t>Male population 35-39</t>
-  </si>
-  <si>
-    <t>Male population 60-64</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Female population 35-39</t>
-  </si>
-  <si>
     <t>Female population 60-64</t>
   </si>
   <si>
+    <t>Persistence to grade 5, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Male population 70-74</t>
+  </si>
+  <si>
+    <t>Net ODA provided, total (constant 2015 US$)</t>
+  </si>
+  <si>
+    <t>Female population 65-69</t>
+  </si>
+  <si>
+    <t>Net ODA provided, total (current US$)</t>
+  </si>
+  <si>
+    <t>Population, total</t>
+  </si>
+  <si>
+    <t>Population, male</t>
+  </si>
+  <si>
+    <t>Population, female</t>
+  </si>
+  <si>
+    <t>Male population 55-59</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male</t>
+  </si>
+  <si>
     <t>GNI per capita, PPP (current international $)</t>
   </si>
   <si>
-    <t>Goods (excluding arms) admitted free of tariffs from developing countries (% total merchandise imports excluding arms)</t>
-  </si>
-  <si>
-    <t>Goods (excluding arms) admitted free of tariffs from least developed countries (% total merchandise imports excluding arms)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on clothing products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on textile products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on textile products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on clothing products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on agricultural products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on agricultural products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Male population 70-74</t>
-  </si>
-  <si>
-    <t>Female population 65-69</t>
-  </si>
-  <si>
-    <t>Male population 55-59</t>
-  </si>
-  <si>
-    <t>Bilateral, sector-allocable ODA to basic social services (% of bilateral ODA commitments)</t>
-  </si>
-  <si>
-    <t>Population, total</t>
+    <t>Population ages 15-64, total</t>
   </si>
   <si>
     <t>Female population 55-59</t>
   </si>
   <si>
-    <t>Population, male</t>
-  </si>
-  <si>
-    <t>Population, female</t>
+    <t>Population ages 15-64, female</t>
+  </si>
+  <si>
+    <t>Female population 70-74</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, GDP (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Male population 30-34</t>
+  </si>
+  <si>
+    <t>Female population 30-34</t>
+  </si>
+  <si>
+    <t>Children orphaned by HIV/AIDS</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kt)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among children (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Male population 00-04</t>
+  </si>
+  <si>
+    <t>Female population 00-04</t>
+  </si>
+  <si>
+    <t>Female population 05-09</t>
+  </si>
+  <si>
+    <t>Male population 05-09</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, female</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, total</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, male</t>
+  </si>
+  <si>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+  </si>
+  <si>
+    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, young</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, total (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force)</t>
+  </si>
+  <si>
+    <t>Age population, age 04, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 03, male, interpolated</t>
+  </si>
+  <si>
+    <t>Gross capital formation (% of GDP)</t>
+  </si>
+  <si>
+    <t>Age population, age 04, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 03, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, male (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 0-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among pregnant women (%)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, female (% of total)</t>
+  </si>
+  <si>
+    <t>Age population, age 05, male, interpolated</t>
   </si>
   <si>
     <t>Births attended by skilled health staff (% of total)</t>
   </si>
   <si>
-    <t>Population ages 15-64, male</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, total</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female</t>
-  </si>
-  <si>
-    <t>Female population 70-74</t>
-  </si>
-  <si>
-    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
-  </si>
-  <si>
-    <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
-  </si>
-  <si>
-    <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
-  </si>
-  <si>
-    <t>Self-employed, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
-  </si>
-  <si>
-    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
-  </si>
-  <si>
-    <t>Self-employed, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
-  </si>
-  <si>
-    <t>Self-employed, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Female population 05-09</t>
-  </si>
-  <si>
-    <t>Male population 05-09</t>
-  </si>
-  <si>
-    <t>Male population 30-34</t>
-  </si>
-  <si>
-    <t>Female population 30-34</t>
-  </si>
-  <si>
-    <t>Male population 00-04</t>
-  </si>
-  <si>
-    <t>Female population 00-04</t>
-  </si>
-  <si>
-    <t>Children orphaned by HIV/AIDS</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, female</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, total</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, male</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, GDP (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among children (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Female share of employment in senior and middle management (%)</t>
-  </si>
-  <si>
-    <t>Age population, age 04, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 04, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 05, male, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 05, female, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 03, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 03, female, interpolated</t>
+    <t>Age population, age 02, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 02, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Age population, age 06, female, interpolated</t>
   </si>
   <si>
     <t>Age population, age 06, male, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 06, female, interpolated</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed post-secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed post-secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed post-secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed post-secondary, population 25+ years, female (%)</t>
+    <t>Population ages 15-19, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages10-14, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 10-14, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Labor force, female (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Fertility rate, total (births per woman)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 01, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male (% of total)</t>
+  </si>
+  <si>
+    <t>Population, female (% of total)</t>
   </si>
   <si>
     <t>Age population, age 07, female, interpolated</t>
   </si>
   <si>
+    <t>Lifetime risk of maternal death (%)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population, male (% of total)</t>
+  </si>
+  <si>
     <t>Age population, age 07, male, interpolated</t>
   </si>
   <si>
-    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Age population, age 02, male, interpolated</t>
+    <t>Population ages 55-59, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Age population, age 01, female, interpolated</t>
+  </si>
+  <si>
+    <t>Improved water source, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Male population 25-29</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Female population 25-29</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, female (% of female population)</t>
   </si>
   <si>
     <t>Female population 10-14</t>
   </si>
   <si>
-    <t>Age population, age 02, female, interpolated</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
+    <t>Population ages 65-69, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Total bilateral ODA commitments (current US$)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Improved water source (% of population with access)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio (% of working-age population)</t>
   </si>
   <si>
     <t>Male population 10-14</t>
   </si>
   <si>
-    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
+    <t>Forest area (% of land area)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Improved water source, rural (% of rural population with access)</t>
   </si>
   <si>
     <t>Age population, age 08, female, interpolated</t>
   </si>
   <si>
+    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Age population, age 08, male, interpolated</t>
   </si>
   <si>
-    <t>Age dependency ratio, young</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force)</t>
-  </si>
-  <si>
-    <t>Unemployment, total (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, male (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 0-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among pregnant women (%)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, female (% of total)</t>
-  </si>
-  <si>
-    <t>Age population, age 01, male, interpolated</t>
+    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above (% of total)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities (% of population with access)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, female (% of total)</t>
+  </si>
+  <si>
+    <t>Age population, age 0, male, interpolated</t>
+  </si>
+  <si>
+    <t>Number of maternal deaths</t>
   </si>
   <si>
     <t>Age population, age 09, female, interpolated</t>
   </si>
   <si>
-    <t>Female population 25-29</t>
+    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
   </si>
   <si>
     <t>Age population, age 09, male, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 01, female, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 25-29</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages10-14, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 10-14, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, female (% of female population)</t>
+    <t>Survival to age 65, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Age population, age 0, female, interpolated</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Female population 20-24</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Male population 20-24</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, old</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, female (% of female adults)</t>
+  </si>
+  <si>
+    <t>Age population, age 10, female, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 15-19</t>
+  </si>
+  <si>
+    <t>Age population, age 10, male, interpolated</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, male (% of male adults)</t>
+  </si>
+  <si>
+    <t>Male population 15-19</t>
+  </si>
+  <si>
+    <t>Survival to age 65, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Employment in services, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, tertiary, female (%)</t>
+  </si>
+  <si>
+    <t>Age population, age 11, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 11, male, interpolated</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, tertiary, male (%)</t>
+  </si>
+  <si>
+    <t>Age population, age 12, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 12, male, interpolated</t>
+  </si>
+  <si>
+    <t>Employment in services, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Age population, age 25, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 25, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 13, female, interpolated</t>
   </si>
   <si>
     <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
   </si>
   <si>
-    <t>Population ages 05-09, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64 (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Age population, age 10, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, male (% of total)</t>
-  </si>
-  <si>
-    <t>Net ODA provided, total (constant 2015 US$)</t>
-  </si>
-  <si>
-    <t>Net ODA provided, total (current US$)</t>
-  </si>
-  <si>
-    <t>Labor force, female (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Age population, age 10, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population, female (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population, male (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Female population 20-24</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Female population 15-19</t>
-  </si>
-  <si>
-    <t>Age population, age 0, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 20-24</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio (% of working-age population)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 80 and older, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (current US$)</t>
-  </si>
-  <si>
-    <t>Male population 15-19</t>
-  </si>
-  <si>
-    <t>Age population, age 0, female, interpolated</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Age population, age 11, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 11, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 80 and older, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, male (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above (% of total)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, female (% of total)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Age population, age 12, female, interpolated</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Age population, age 12, male, interpolated</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, old</t>
-  </si>
-  <si>
-    <t>Age population, age 13, female, interpolated</t>
+    <t>Bilateral ODA commitments that is untied (current US$)</t>
   </si>
   <si>
     <t>Age population, age 13, male, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 24, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 24, female, interpolated</t>
+  </si>
+  <si>
+    <t>Employment in industry, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Trade (% of GDP)</t>
+  </si>
+  <si>
+    <t>Age population, age 23, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 23, female, interpolated</t>
+  </si>
+  <si>
     <t>GDP per person employed (constant 2011 PPP $)</t>
   </si>
   <si>
-    <t>Government expenditure per student, primary (% of GDP per capita)</t>
-  </si>
-  <si>
     <t>Age population, age 14, female, interpolated</t>
   </si>
   <si>
-    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
-  </si>
-  <si>
-    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+    <t>Age population, age 22, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 22, male, interpolated</t>
   </si>
   <si>
     <t>Age population, age 14, male, interpolated</t>
   </si>
   <si>
-    <t>Health expenditure per capita, PPP</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
-  </si>
-  <si>
-    <t>Age population, age 25, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 25, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 24, female, interpolated</t>
+    <t>Age population, age 21, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 21, male, interpolated</t>
   </si>
   <si>
     <t>Age population, age 15, female, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 24, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 23, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 23, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 22, female, interpolated</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
+    <t>Age population, age 20, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 20, male, interpolated</t>
   </si>
   <si>
     <t>Age population, age 15, male, interpolated</t>
   </si>
   <si>
-    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
-  </si>
-  <si>
-    <t>Age population, age 22, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 21, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 21, male, interpolated</t>
+    <t>Age population, age 19, female, interpolated</t>
+  </si>
+  <si>
+    <t>Employment in industry, female (% of female employment)</t>
   </si>
   <si>
     <t>Age population, age 16, female, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 20, female, interpolated</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, female (% of female adults)</t>
-  </si>
-  <si>
-    <t>Gross capital formation (% of GDP)</t>
-  </si>
-  <si>
-    <t>Age population, age 20, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 19, female, interpolated</t>
+    <t>Age population, age 19, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 18, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 17, female, interpolated</t>
+  </si>
+  <si>
+    <t>Proportion of seats held by women in national parliaments (%)</t>
   </si>
   <si>
     <t>Age population, age 16, male, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 17, female, interpolated</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, male (% of male adults)</t>
-  </si>
-  <si>
-    <t>Age population, age 18, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 19, male, interpolated</t>
+    <t>Age population, age 18, male, interpolated</t>
   </si>
   <si>
     <t>Age population, age 17, male, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 18, male, interpolated</t>
-  </si>
-  <si>
-    <t>Fertility rate, total (births per woman)</t>
-  </si>
-  <si>
-    <t>Lifetime risk of maternal death (%)</t>
-  </si>
-  <si>
-    <t>Improved water source, urban (% of urban population with access)</t>
-  </si>
-  <si>
-    <t>Improved water source (% of population with access)</t>
-  </si>
-  <si>
-    <t>Improved water source, rural (% of rural population with access)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities (% of population with access)</t>
-  </si>
-  <si>
-    <t>Number of maternal deaths</t>
-  </si>
-  <si>
-    <t>Survival to age 65, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
-  </si>
-  <si>
-    <t>Proportion of seats held by women in national parliaments (%)</t>
-  </si>
-  <si>
-    <t>Survival to age 65, male (% of cohort)</t>
+    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
+  </si>
+  <si>
+    <t>Forest area (sq. km)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% net)</t>
   </si>
   <si>
     <t>Rural population</t>
   </si>
   <si>
-    <t>Trade (% of GDP)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kt)</t>
-  </si>
-  <si>
-    <t>Employers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Employers, female (% of female employment)</t>
+    <t>Time-related underemployment, female (% of employment)</t>
+  </si>
+  <si>
+    <t>Time-related underemployment, male (% of employment)</t>
+  </si>
+  <si>
+    <t>Proportion of women in ministerial level positions (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, total (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
+  </si>
+  <si>
+    <t>Net ODA provided to the least developed countries (current US$)</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>Total bilateral sector allocable ODA commitments (current US$)</t>
+  </si>
+  <si>
+    <t>Years</t>
+  </si>
+  <si>
+    <t>Country_code</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
+    <t>Tertiary education, academic staff (% female)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% net)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% net)</t>
+  </si>
+  <si>
+    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
+  </si>
+  <si>
+    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Fixed telephone subscriptions (per 100 people)</t>
   </si>
   <si>
     <t>GDP growth (annual %)</t>
   </si>
   <si>
-    <t>Years</t>
-  </si>
-  <si>
-    <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Country_code</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Forest area (sq. km)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
+    <t>Educational attainment, completed short-cycle tertiary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed short-cycle tertiary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult female (% of females ages 15 and above)</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult total (% of people ages 15 and above)</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult male (% of males ages 15 and above)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth female (% of females ages 15-24)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth total (% of people ages 15-24)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth male (% of males ages 15-24)</t>
+  </si>
+  <si>
+    <t>Ratio of young literate females to males (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth (ages 15-24), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, primary, female (%)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, primary, male (%)</t>
+  </si>
+  <si>
+    <t>Rural poverty headcount ratio at national poverty lines (% of rural population)</t>
+  </si>
+  <si>
+    <t>Rural poverty gap at national poverty lines (%)</t>
+  </si>
+  <si>
+    <t>Poverty gap at national poverty lines (%)</t>
+  </si>
+  <si>
+    <t>Urban poverty headcount ratio at national poverty lines (% of urban population)</t>
+  </si>
+  <si>
+    <t>Urban poverty gap at national poverty lines (%)</t>
   </si>
   <si>
     <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
@@ -895,34 +1078,19 @@
     <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
   </si>
   <si>
-    <t>Gross graduation ratio, tertiary, female (%)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, tertiary, male (%)</t>
+    <t>Time required to start a business, male (days)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, female (days)</t>
   </si>
   <si>
     <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
   </si>
   <si>
-    <t>Net ODA provided to the least developed countries (current US$)</t>
-  </si>
-  <si>
-    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Total bilateral sector allocable ODA commitments (current US$)</t>
-  </si>
-  <si>
-    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
-  </si>
-  <si>
-    <t>Fixed telephone subscriptions (per 100 people)</t>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
   </si>
   <si>
     <t>People practicing open defecation, rural (% of rural population)</t>
@@ -934,73 +1102,79 @@
     <t>People using basic sanitation services, urban  (% of urban population)</t>
   </si>
   <si>
-    <t>Literacy rate, adult female (% of females ages 15 and above)</t>
-  </si>
-  <si>
-    <t>Literacy rate, adult total (% of people ages 15 and above)</t>
-  </si>
-  <si>
-    <t>Literacy rate, adult male (% of males ages 15 and above)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth female (% of females ages 15-24)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth total (% of people ages 15-24)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth male (% of males ages 15-24)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth (ages 15-24), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Ratio of young literate females to males (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services, rural (% of rural population)</t>
+    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, male (number)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, female (number)</t>
   </si>
   <si>
     <t>People using basic sanitation services, rural (% of rural population)</t>
   </si>
   <si>
-    <t>Rural poverty headcount ratio at national poverty lines (% of rural population)</t>
-  </si>
-  <si>
-    <t>Rural poverty gap at national poverty lines (%)</t>
-  </si>
-  <si>
-    <t>Poverty gap at national poverty lines (%)</t>
-  </si>
-  <si>
-    <t>Urban poverty headcount ratio at national poverty lines (% of urban population)</t>
-  </si>
-  <si>
-    <t>Urban poverty gap at national poverty lines (%)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, male (days)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, female (days)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, primary, female (%)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, primary, male (%)</t>
-  </si>
-  <si>
-    <t>Time-related underemployment, female (% of employment)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Time-related underemployment, male (% of employment)</t>
+    <t>Internet users (per 100 people)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Urban population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Bilateral, sector-allocable ODA to basic social services (current US$)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Age at first marriage, male</t>
+  </si>
+  <si>
+    <t>Age at first marriage, female</t>
+  </si>
+  <si>
+    <t>Nurses and midwives (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Primary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
   </si>
   <si>
     <t>People using basic drinking water services, urban (% of urban population)</t>
@@ -1009,55 +1183,79 @@
     <t>People using basic drinking water services, rural (% of rural population)</t>
   </si>
   <si>
-    <t>Start-up procedures to register a business, male (number)</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, female (number)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>Primary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Employment in services, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, total (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Employment in services, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+  </si>
+  <si>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Number of under-five deaths</t>
+  </si>
+  <si>
+    <t>Primary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Secondary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Number of neonatal deaths</t>
+  </si>
+  <si>
+    <t>Secondary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Informal employment, male (% of total non-agricultural employment)</t>
+  </si>
+  <si>
+    <t>Informal employment, female (% of total non-agricultural employment)</t>
+  </si>
+  <si>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Number of infant deaths</t>
+  </si>
+  <si>
+    <t>Incidence of tuberculosis (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, female</t>
+  </si>
+  <si>
+    <t>Immunization, Pol3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Immunization, measles (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>Teenage mothers (% of women ages 15-19 who have had children or are currently pregnant)</t>
+  </si>
+  <si>
+    <t>Pregnant women receiving prenatal care (%)</t>
+  </si>
+  <si>
+    <t>Women's share of population ages 15+ living with HIV (%)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, female (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, male (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of government expenditure)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of GDP)</t>
   </si>
   <si>
     <t>Tuberculosis case detection rate (all forms)</t>
@@ -1066,145 +1264,10 @@
     <t>Tuberculosis case detection rate (%, all forms)</t>
   </si>
   <si>
-    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
-  </si>
-  <si>
-    <t>Urban population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Employment in industry, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed short-cycle tertiary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed short-cycle tertiary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Employment in industry, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Bilateral, sector-allocable ODA to basic social services (current US$)</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>Secondary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Mobile cellular subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kg per PPP $ of GDP)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (metric tons per capita)</t>
-  </si>
-  <si>
-    <t>Number of under-five deaths</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% net)</t>
-  </si>
-  <si>
-    <t>Number of neonatal deaths</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Informal employment, male (% of total non-agricultural employment)</t>
-  </si>
-  <si>
-    <t>Informal employment, female (% of total non-agricultural employment)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Number of infant deaths</t>
-  </si>
-  <si>
-    <t>Immunization, DPT (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Immunization, Pol3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Immunization, measles (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Pregnant women receiving prenatal care (%)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% net)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% net)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, female</t>
-  </si>
-  <si>
-    <t>Total bilateral ODA commitments (current US$)</t>
-  </si>
-  <si>
     <t>Poverty headcount ratio at national poverty lines (% of population)</t>
   </si>
   <si>
     <t>Poverty headcount ratio at national poverty line (% of population)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Women's share of population ages 15+ living with HIV (%)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, female (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, male (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
-  </si>
-  <si>
-    <t>Bilateral ODA commitments that is untied (current US$)</t>
-  </si>
-  <si>
-    <t>Teenage mothers (% of women ages 15-19 who have had children or are currently pregnant)</t>
-  </si>
-  <si>
-    <t>Age at first marriage, male</t>
-  </si>
-  <si>
-    <t>Age at first marriage, female</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Proportion of women in ministerial level positions (%)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
-  </si>
-  <si>
-    <t>Newborns protected against tetanus (%)</t>
   </si>
 </sst>
 </file>
@@ -1562,7 +1625,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C396"/>
+  <dimension ref="A1:C417"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1581,7 +1644,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>328.0523237799205</v>
+        <v>756.3276329543347</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1592,7 +1655,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>325.4097349377499</v>
+        <v>725.7402534259061</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1603,7 +1666,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>205.163633320008</v>
+        <v>725.7402534259061</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1614,7 +1677,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>166.3230379073794</v>
+        <v>614.5720366205583</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1625,7 +1688,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>153.5824692671799</v>
+        <v>438.3143521512985</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1636,7 +1699,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>153.5824692671773</v>
+        <v>433.8208877540515</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1647,7 +1710,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>139.3601719442999</v>
+        <v>411.7897032074804</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1658,7 +1721,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>122.1818631254417</v>
+        <v>190.1028884944718</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1669,7 +1732,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>114.3830096912658</v>
+        <v>160.1144870976498</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1680,7 +1743,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>114.3797812916422</v>
+        <v>145.2626111124199</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1691,7 +1754,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>90.74594512730272</v>
+        <v>145.2626111124052</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1702,7 +1765,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>86.75585688974593</v>
+        <v>120.606175862196</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1713,7 +1776,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>86.48285901828199</v>
+        <v>114.5982765315201</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1724,7 +1787,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>86.23669207720501</v>
+        <v>93.85880549245915</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1735,7 +1798,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>75.64882396634503</v>
+        <v>93.49177023977722</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1746,7 +1809,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>75.64882396634503</v>
+        <v>93.34751953264039</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1757,7 +1820,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>75.04911202171397</v>
+        <v>93.34166119516794</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1768,7 +1831,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>72.37583027848113</v>
+        <v>93.27025926430449</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1779,7 +1842,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>64.69889539817967</v>
+        <v>93.25226415858172</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1790,7 +1853,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>59.45945270465703</v>
+        <v>93.20514596303276</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1801,7 +1864,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>56.53730935690983</v>
+        <v>93.18280479995661</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1812,7 +1875,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>53.63916216588153</v>
+        <v>87.87678126808422</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1823,7 +1886,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>53.37685096489709</v>
+        <v>85.48815633981097</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1834,7 +1897,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>52.76187491549637</v>
+        <v>85.40025833106799</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1845,7 +1908,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>51.93585510562768</v>
+        <v>85.05988881726419</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1856,7 +1919,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>50.79606314178759</v>
+        <v>84.77630231079709</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1867,7 +1930,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>48.57064663591778</v>
+        <v>79.62622720482716</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1878,7 +1941,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>47.684763536532</v>
+        <v>79.61960110328982</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1889,7 +1952,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>47.65436247329518</v>
+        <v>79.31033673473883</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1900,7 +1963,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>47.0912656894736</v>
+        <v>79.30271890643932</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1911,7 +1974,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>46.85334967255296</v>
+        <v>73.51950097670057</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1922,7 +1985,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>46.84262876514594</v>
+        <v>73.18267898892391</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1933,7 +1996,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>46.82510369388032</v>
+        <v>71.42316773873975</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1944,7 +2007,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>46.77774369870806</v>
+        <v>71.42316773873975</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1955,7 +2018,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>46.50077939640756</v>
+        <v>70.69525526490338</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1966,7 +2029,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>46.23243793581233</v>
+        <v>68.75360923585534</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1977,7 +2040,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>45.70017751188359</v>
+        <v>67.0051452586481</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1988,7 +2051,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>45.69821925013601</v>
+        <v>65.47113557625028</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1999,7 +2062,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>45.35766897807572</v>
+        <v>65.08170226921951</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -2010,7 +2073,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>44.99086723567355</v>
+        <v>61.65984019972218</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -2021,7 +2084,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>44.92798952113967</v>
+        <v>60.52484056959732</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -2032,7 +2095,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>44.7672354752668</v>
+        <v>58.43036300625892</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -2043,7 +2106,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>44.60972116118106</v>
+        <v>58.15237070574568</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -2054,7 +2117,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>44.32918862266929</v>
+        <v>57.05128929655195</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -2065,7 +2128,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>44.24432329340507</v>
+        <v>52.88951414592621</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -2076,7 +2139,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>44.0605037666918</v>
+        <v>52.6210381662584</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -2087,7 +2150,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>44.02598295541286</v>
+        <v>51.70072099339043</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -2098,7 +2161,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>44.00851438135389</v>
+        <v>51.68337471135744</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -2109,7 +2172,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>43.64174244790794</v>
+        <v>50.97340658776539</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -2120,7 +2183,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>43.58996333088858</v>
+        <v>50.71783425517408</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -2131,7 +2194,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>43.53166396050685</v>
+        <v>50.42305344254918</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -2142,7 +2205,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>43.52549392466113</v>
+        <v>50.28669341222104</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -2153,7 +2216,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>43.49091933784678</v>
+        <v>50.15202101413306</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -2164,7 +2227,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>43.43749539637712</v>
+        <v>50.09976689568712</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -2175,7 +2238,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>43.29084658957075</v>
+        <v>49.94147950343789</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -2186,7 +2249,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>43.22921179232964</v>
+        <v>49.85544036977416</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -2197,7 +2260,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>43.22792161674949</v>
+        <v>49.76864385767443</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -2208,7 +2271,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>43.20242801929069</v>
+        <v>49.74171045494914</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -2219,7 +2282,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>43.19145854089273</v>
+        <v>49.61197197506963</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -2230,7 +2293,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>43.17388791216141</v>
+        <v>49.4489643575192</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -2241,7 +2304,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>43.15580811145148</v>
+        <v>49.20336229803232</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -2252,7 +2315,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>43.09436303443481</v>
+        <v>48.88128556719417</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -2263,7 +2326,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>42.93275095437635</v>
+        <v>48.24181250801347</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -2274,7 +2337,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>42.52755695823463</v>
+        <v>48.19282564337917</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -2285,7 +2348,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>42.44726255134901</v>
+        <v>48.19282564337917</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -2296,7 +2359,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>42.39161954031565</v>
+        <v>44.83164605755063</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -2307,7 +2370,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>42.38647870126993</v>
+        <v>43.968219429097</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -2318,7 +2381,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>42.36405320701633</v>
+        <v>43.71949541164669</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -2329,7 +2392,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>42.29502443008305</v>
+        <v>43.67754201146501</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -2340,7 +2403,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>41.76089325715881</v>
+        <v>43.56005266300291</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -2351,7 +2414,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>41.74967460805258</v>
+        <v>43.42228169917449</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -2362,7 +2425,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>41.68290954688487</v>
+        <v>43.41758234783455</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -2373,7 +2436,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>41.60174348087403</v>
+        <v>43.39407031558513</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -2384,7 +2447,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>41.2989723532699</v>
+        <v>43.38338874737774</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -2395,7 +2458,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>41.16553212979641</v>
+        <v>43.34920989773479</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -2406,7 +2469,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>40.92902796566593</v>
+        <v>43.33213333350577</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -2417,7 +2480,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>40.87803278411358</v>
+        <v>43.32028925728985</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -2428,7 +2491,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>40.72358375006579</v>
+        <v>42.99817344052711</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -2439,7 +2502,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>40.71071109908225</v>
+        <v>42.81429855822716</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -2450,7 +2513,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>40.67797455843785</v>
+        <v>42.79403510964108</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -2461,7 +2524,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>40.56366674602969</v>
+        <v>42.44005559518867</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -2472,7 +2535,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>40.5022376406536</v>
+        <v>42.39460383681791</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -2483,7 +2546,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>40.3344444610337</v>
+        <v>42.32583077581457</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -2494,7 +2557,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>39.39226574170351</v>
+        <v>42.28908211515716</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -2505,7 +2568,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>39.34505683118831</v>
+        <v>42.27842721642487</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -2516,7 +2579,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>38.96646935608526</v>
+        <v>42.2727559888324</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -2527,7 +2590,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>38.92198968023366</v>
+        <v>42.2649664035897</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -2538,7 +2601,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>38.91740476083226</v>
+        <v>42.25849239019149</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -2549,7 +2612,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>38.82652424927122</v>
+        <v>42.22604879252079</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -2560,7 +2623,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>38.29102957699927</v>
+        <v>42.17305741928268</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -2571,7 +2634,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>38.22002981992024</v>
+        <v>42.15128007435177</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -2582,7 +2645,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>38.21269632562386</v>
+        <v>41.98433338952639</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -2593,7 +2656,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>38.18234395897402</v>
+        <v>41.76525555258581</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -2604,7 +2667,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>38.06452293360889</v>
+        <v>41.73961671363618</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -2615,7 +2678,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>37.54438559901066</v>
+        <v>41.69595362431906</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -2626,7 +2689,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>37.29681849913967</v>
+        <v>41.57162630384641</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -2637,7 +2700,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>37.02979606998632</v>
+        <v>41.55907349510233</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -2648,7 +2711,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>36.97734565614677</v>
+        <v>41.5242919726522</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -2659,7 +2722,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>36.93334758655431</v>
+        <v>41.36990115714639</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -2670,7 +2733,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>36.90507513843029</v>
+        <v>41.34850452199777</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -2681,7 +2744,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>36.79712886108461</v>
+        <v>41.23936476951656</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -2692,7 +2755,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>36.70999157084779</v>
+        <v>41.23387379215602</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -2703,7 +2766,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>36.62405359106511</v>
+        <v>41.04126635081153</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -2714,7 +2777,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>36.61998600499103</v>
+        <v>40.7470212956629</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -2725,7 +2788,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>36.59032012954643</v>
+        <v>40.70173468332352</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -2736,7 +2799,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>36.55606498040917</v>
+        <v>40.55212122196695</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -2747,7 +2810,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>36.47818520930512</v>
+        <v>40.46134403040116</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -2758,7 +2821,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>36.2969349651146</v>
+        <v>40.39595521964711</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -2769,7 +2832,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>36.28537063639197</v>
+        <v>40.39342572960704</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -2780,7 +2843,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>36.25901647084031</v>
+        <v>40.09975641744572</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -2791,7 +2854,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>36.19502017846918</v>
+        <v>39.91882933878723</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -2802,7 +2865,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>36.18219564617149</v>
+        <v>39.91599910429247</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -2813,7 +2876,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>36.16486290065998</v>
+        <v>39.57271373931721</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -2824,7 +2887,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>36.14513899217189</v>
+        <v>39.41037230816868</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -2835,7 +2898,7 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>36.13485074431659</v>
+        <v>39.34107618987911</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -2846,7 +2909,7 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>36.11891543858333</v>
+        <v>39.27846817986244</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -2857,7 +2920,7 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>35.98654315192919</v>
+        <v>39.16432328405067</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -2868,7 +2931,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>35.9805682073772</v>
+        <v>39.15561700097276</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -2879,7 +2942,7 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>35.89818946075166</v>
+        <v>39.05730031359894</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -2890,7 +2953,7 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>35.83338920674711</v>
+        <v>38.73258321134937</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -2901,7 +2964,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>35.7556535831738</v>
+        <v>38.70425975999763</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -2912,7 +2975,7 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>35.69794463391684</v>
+        <v>38.654249064613</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -2923,7 +2986,7 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>35.69138448037135</v>
+        <v>38.62025671722294</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -2934,7 +2997,7 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>35.68814344774991</v>
+        <v>38.60600456042191</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -2945,7 +3008,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>35.67646481935971</v>
+        <v>38.52257400315455</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -2956,7 +3019,7 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>35.6125690741309</v>
+        <v>37.99608659833544</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -2967,7 +3030,7 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>35.56148225776276</v>
+        <v>37.07314505254549</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -2978,7 +3041,7 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>35.51907843449349</v>
+        <v>37.0554415182541</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -2989,7 +3052,7 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>35.47019224750016</v>
+        <v>36.91679536542898</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -3000,7 +3063,7 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>35.39007319430986</v>
+        <v>36.72740955350995</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -3011,7 +3074,7 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>35.39007319430986</v>
+        <v>36.67500748696449</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -3022,7 +3085,7 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>35.38334274818916</v>
+        <v>36.66143604663696</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -3033,7 +3096,7 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>35.37923226387611</v>
+        <v>36.51443157855261</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -3044,7 +3107,7 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>35.37923226387611</v>
+        <v>36.44495122173132</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -3055,7 +3118,7 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>35.07319704963708</v>
+        <v>36.14113989781048</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -3066,7 +3129,7 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>35.01306821940837</v>
+        <v>36.08024580589672</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -3077,7 +3140,7 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>35.01306821940837</v>
+        <v>35.7490132181091</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -3088,7 +3151,7 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>34.96459668371207</v>
+        <v>35.71521605412204</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -3099,7 +3162,7 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>34.95444614184399</v>
+        <v>35.64604728411594</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -3110,7 +3173,7 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>34.93936250387227</v>
+        <v>35.46313010646141</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -3121,7 +3184,7 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>34.84068215895717</v>
+        <v>35.33638251872329</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -3132,7 +3195,7 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>34.79142972802921</v>
+        <v>35.29176157970268</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -3143,7 +3206,7 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>34.77712780783904</v>
+        <v>35.27812872280292</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -3154,7 +3217,7 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>34.76665159815983</v>
+        <v>35.24342821783464</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -3165,7 +3228,7 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>34.70960233070937</v>
+        <v>35.14609049629435</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -3176,7 +3239,7 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>34.54338474305136</v>
+        <v>34.77973999167678</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -3187,7 +3250,7 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>34.49212667908144</v>
+        <v>34.63718157830176</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -3198,7 +3261,7 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>34.47557381461024</v>
+        <v>34.59480114134318</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -3209,7 +3272,7 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>34.42086118988979</v>
+        <v>34.59480114134318</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -3220,7 +3283,7 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>34.40165044108315</v>
+        <v>34.56930493692452</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -3231,7 +3294,7 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>34.38199754958179</v>
+        <v>34.54877857551173</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -3242,7 +3305,7 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>34.34356192275345</v>
+        <v>34.54877857551173</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -3253,7 +3316,7 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>34.30955008351271</v>
+        <v>34.36614232924961</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -3264,7 +3327,7 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>34.27513472157904</v>
+        <v>34.36379386530925</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -3275,7 +3338,7 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>34.27023650376486</v>
+        <v>34.36299269640425</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -3286,7 +3349,7 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>34.18398306164906</v>
+        <v>34.33456646549524</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -3297,7 +3360,7 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>34.15853957945372</v>
+        <v>34.29929060162507</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -3308,7 +3371,7 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>34.14863272456098</v>
+        <v>34.23227429417012</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -3319,7 +3382,7 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>34.14738879181382</v>
+        <v>34.17240248781764</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -3330,7 +3393,7 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>34.11227325846803</v>
+        <v>34.17240248781764</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -3341,7 +3404,7 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>34.05121579242278</v>
+        <v>34.13869682728056</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -3352,7 +3415,7 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>34.01994635921926</v>
+        <v>34.11415505264964</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -3363,7 +3426,7 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>34.01001002133656</v>
+        <v>34.09469870635549</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -3374,7 +3437,7 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>33.98776368711498</v>
+        <v>34.09167259080691</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -3385,7 +3448,7 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>33.98459009582945</v>
+        <v>34.08606789966394</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -3396,7 +3459,7 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>33.96721757602764</v>
+        <v>33.97667004740525</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -3407,7 +3470,7 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>33.95122066596389</v>
+        <v>33.86289696767883</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -3418,7 +3481,7 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>33.94653225565926</v>
+        <v>33.70378568632415</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -3429,7 +3492,7 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>33.93803152360942</v>
+        <v>33.67485971244186</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -3440,7 +3503,7 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>33.92630685558526</v>
+        <v>33.66078553189088</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -3451,7 +3514,7 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>33.90147897373132</v>
+        <v>33.65472069600688</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -3462,7 +3525,7 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>33.87779889962777</v>
+        <v>33.64986905373735</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -3473,7 +3536,7 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>33.86617069306104</v>
+        <v>33.59591638990351</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -3484,7 +3547,7 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>33.84905156654301</v>
+        <v>33.55542735891291</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -3495,7 +3558,7 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>33.83150334159105</v>
+        <v>33.54049857488324</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -3506,7 +3569,7 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>33.82788724107457</v>
+        <v>33.52597032686961</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -3517,7 +3580,7 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>33.82752992553363</v>
+        <v>33.4925706404597</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -3528,7 +3591,7 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>33.8159572077364</v>
+        <v>33.45761491713611</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -3539,7 +3602,7 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>33.77109414672673</v>
+        <v>33.45213829366539</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -3550,7 +3613,7 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>33.76549361579471</v>
+        <v>33.40237342193193</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -3561,7 +3624,7 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>33.76491516616572</v>
+        <v>33.35373003424237</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -3572,7 +3635,7 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>33.74334609474808</v>
+        <v>33.32930637979549</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -3583,7 +3646,7 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>33.73414960848206</v>
+        <v>33.30130655880155</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -3594,7 +3657,7 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>33.71336159950491</v>
+        <v>33.27416883741194</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -3605,7 +3668,7 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>33.70330114034612</v>
+        <v>33.25908629403792</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -3616,7 +3679,7 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>33.70007575702589</v>
+        <v>33.22107742408326</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -3627,7 +3690,7 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>33.69792759658398</v>
+        <v>33.17140897679164</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -3638,7 +3701,7 @@
         <v>189</v>
       </c>
       <c r="B189">
-        <v>33.68428349636835</v>
+        <v>33.16942292992967</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -3649,7 +3712,7 @@
         <v>190</v>
       </c>
       <c r="B190">
-        <v>33.63984113770609</v>
+        <v>33.15280508666568</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -3660,7 +3723,7 @@
         <v>191</v>
       </c>
       <c r="B191">
-        <v>33.63274843166827</v>
+        <v>33.14631849356972</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -3671,7 +3734,7 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <v>33.5937986958257</v>
+        <v>33.14609575299792</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -3682,7 +3745,7 @@
         <v>193</v>
       </c>
       <c r="B193">
-        <v>33.5627635498639</v>
+        <v>33.13677264842872</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -3693,7 +3756,7 @@
         <v>194</v>
       </c>
       <c r="B194">
-        <v>33.53832664572461</v>
+        <v>33.13430999482365</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -3704,7 +3767,7 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>33.52545987726148</v>
+        <v>33.13256751596433</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -3715,7 +3778,7 @@
         <v>196</v>
       </c>
       <c r="B196">
-        <v>33.49102275467392</v>
+        <v>33.12434300428893</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -3726,7 +3789,7 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>33.47733321663834</v>
+        <v>33.12055801744495</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -3737,7 +3800,7 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>33.44887252045325</v>
+        <v>33.09827176154325</v>
       </c>
       <c r="C198">
         <v>0</v>
@@ -3748,7 +3811,7 @@
         <v>199</v>
       </c>
       <c r="B199">
-        <v>33.39341577260778</v>
+        <v>33.07370478893855</v>
       </c>
       <c r="C199">
         <v>0</v>
@@ -3759,7 +3822,7 @@
         <v>200</v>
       </c>
       <c r="B200">
-        <v>33.37595567388039</v>
+        <v>33.06228049207156</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -3770,7 +3833,7 @@
         <v>201</v>
       </c>
       <c r="B201">
-        <v>33.34821466986697</v>
+        <v>33.06077292652708</v>
       </c>
       <c r="C201">
         <v>0</v>
@@ -3781,7 +3844,7 @@
         <v>202</v>
       </c>
       <c r="B202">
-        <v>33.33465316457192</v>
+        <v>33.0275261610027</v>
       </c>
       <c r="C202">
         <v>0</v>
@@ -3792,7 +3855,7 @@
         <v>203</v>
       </c>
       <c r="B203">
-        <v>33.30849935561255</v>
+        <v>33.02706203610767</v>
       </c>
       <c r="C203">
         <v>0</v>
@@ -3803,7 +3866,7 @@
         <v>204</v>
       </c>
       <c r="B204">
-        <v>33.25298214755103</v>
+        <v>33.0241449496748</v>
       </c>
       <c r="C204">
         <v>0</v>
@@ -3814,7 +3877,7 @@
         <v>205</v>
       </c>
       <c r="B205">
-        <v>33.14691655254671</v>
+        <v>33.00616769025</v>
       </c>
       <c r="C205">
         <v>0</v>
@@ -3825,7 +3888,7 @@
         <v>206</v>
       </c>
       <c r="B206">
-        <v>33.11635675885681</v>
+        <v>32.98083643555356</v>
       </c>
       <c r="C206">
         <v>0</v>
@@ -3836,7 +3899,7 @@
         <v>207</v>
       </c>
       <c r="B207">
-        <v>33.03490827520627</v>
+        <v>32.97310632376906</v>
       </c>
       <c r="C207">
         <v>0</v>
@@ -3847,7 +3910,7 @@
         <v>208</v>
       </c>
       <c r="B208">
-        <v>32.80923746483291</v>
+        <v>32.97186837327681</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -3858,7 +3921,7 @@
         <v>209</v>
       </c>
       <c r="B209">
-        <v>32.75522555831819</v>
+        <v>32.96615172433992</v>
       </c>
       <c r="C209">
         <v>0</v>
@@ -3869,7 +3932,7 @@
         <v>210</v>
       </c>
       <c r="B210">
-        <v>32.68554816460473</v>
+        <v>32.96266450621764</v>
       </c>
       <c r="C210">
         <v>0</v>
@@ -3880,7 +3943,7 @@
         <v>211</v>
       </c>
       <c r="B211">
-        <v>32.65698630557814</v>
+        <v>32.95768160574776</v>
       </c>
       <c r="C211">
         <v>0</v>
@@ -3891,7 +3954,7 @@
         <v>212</v>
       </c>
       <c r="B212">
-        <v>32.6141884448216</v>
+        <v>32.94367857817512</v>
       </c>
       <c r="C212">
         <v>0</v>
@@ -3902,7 +3965,7 @@
         <v>213</v>
       </c>
       <c r="B213">
-        <v>32.56679286721441</v>
+        <v>32.92389819344158</v>
       </c>
       <c r="C213">
         <v>0</v>
@@ -3913,7 +3976,7 @@
         <v>214</v>
       </c>
       <c r="B214">
-        <v>32.49106475275547</v>
+        <v>32.91886639281886</v>
       </c>
       <c r="C214">
         <v>0</v>
@@ -3924,7 +3987,7 @@
         <v>215</v>
       </c>
       <c r="B215">
-        <v>32.37670108383789</v>
+        <v>32.90836762323841</v>
       </c>
       <c r="C215">
         <v>0</v>
@@ -3935,7 +3998,7 @@
         <v>216</v>
       </c>
       <c r="B216">
-        <v>32.36023974738578</v>
+        <v>32.9052847722394</v>
       </c>
       <c r="C216">
         <v>0</v>
@@ -3946,7 +4009,7 @@
         <v>217</v>
       </c>
       <c r="B217">
-        <v>32.33339411548943</v>
+        <v>32.9036195902152</v>
       </c>
       <c r="C217">
         <v>0</v>
@@ -3957,7 +4020,7 @@
         <v>218</v>
       </c>
       <c r="B218">
-        <v>32.08718689531143</v>
+        <v>32.89935104016974</v>
       </c>
       <c r="C218">
         <v>0</v>
@@ -3968,7 +4031,7 @@
         <v>219</v>
       </c>
       <c r="B219">
-        <v>31.99274129798622</v>
+        <v>32.89526705931342</v>
       </c>
       <c r="C219">
         <v>0</v>
@@ -3979,7 +4042,7 @@
         <v>220</v>
       </c>
       <c r="B220">
-        <v>31.79989380697574</v>
+        <v>32.88287612186762</v>
       </c>
       <c r="C220">
         <v>0</v>
@@ -3990,7 +4053,7 @@
         <v>221</v>
       </c>
       <c r="B221">
-        <v>31.64265471249456</v>
+        <v>32.8710599270601</v>
       </c>
       <c r="C221">
         <v>0</v>
@@ -4001,7 +4064,7 @@
         <v>222</v>
       </c>
       <c r="B222">
-        <v>31.56121342848295</v>
+        <v>32.82143774120211</v>
       </c>
       <c r="C222">
         <v>0</v>
@@ -4012,7 +4075,7 @@
         <v>223</v>
       </c>
       <c r="B223">
-        <v>31.44988608516315</v>
+        <v>32.79837649289679</v>
       </c>
       <c r="C223">
         <v>0</v>
@@ -4023,7 +4086,7 @@
         <v>224</v>
       </c>
       <c r="B224">
-        <v>31.18318746302053</v>
+        <v>32.79138500090361</v>
       </c>
       <c r="C224">
         <v>0</v>
@@ -4034,7 +4097,7 @@
         <v>225</v>
       </c>
       <c r="B225">
-        <v>31.14663071930236</v>
+        <v>32.75710533483087</v>
       </c>
       <c r="C225">
         <v>0</v>
@@ -4045,7 +4108,7 @@
         <v>226</v>
       </c>
       <c r="B226">
-        <v>31.01806036671729</v>
+        <v>32.72295287873079</v>
       </c>
       <c r="C226">
         <v>0</v>
@@ -4056,7 +4119,7 @@
         <v>227</v>
       </c>
       <c r="B227">
-        <v>30.99870614173474</v>
+        <v>32.7166876362688</v>
       </c>
       <c r="C227">
         <v>0</v>
@@ -4067,7 +4130,7 @@
         <v>228</v>
       </c>
       <c r="B228">
-        <v>30.91183873170241</v>
+        <v>32.69520085722435</v>
       </c>
       <c r="C228">
         <v>0</v>
@@ -4078,7 +4141,7 @@
         <v>229</v>
       </c>
       <c r="B229">
-        <v>30.91183873170241</v>
+        <v>32.61241521604437</v>
       </c>
       <c r="C229">
         <v>0</v>
@@ -4089,7 +4152,7 @@
         <v>230</v>
       </c>
       <c r="B230">
-        <v>30.89634899222889</v>
+        <v>32.58675025743833</v>
       </c>
       <c r="C230">
         <v>0</v>
@@ -4100,7 +4163,7 @@
         <v>231</v>
       </c>
       <c r="B231">
-        <v>30.85324837830229</v>
+        <v>32.49557724383411</v>
       </c>
       <c r="C231">
         <v>0</v>
@@ -4111,7 +4174,7 @@
         <v>232</v>
       </c>
       <c r="B232">
-        <v>30.68249882395313</v>
+        <v>32.49184814360927</v>
       </c>
       <c r="C232">
         <v>0</v>
@@ -4122,7 +4185,7 @@
         <v>233</v>
       </c>
       <c r="B233">
-        <v>30.65642358724649</v>
+        <v>32.48687509619851</v>
       </c>
       <c r="C233">
         <v>0</v>
@@ -4133,7 +4196,7 @@
         <v>234</v>
       </c>
       <c r="B234">
-        <v>30.63556440029828</v>
+        <v>32.43882614189307</v>
       </c>
       <c r="C234">
         <v>0</v>
@@ -4144,7 +4207,7 @@
         <v>235</v>
       </c>
       <c r="B235">
-        <v>30.5678327428485</v>
+        <v>32.42842227783651</v>
       </c>
       <c r="C235">
         <v>0</v>
@@ -4155,7 +4218,7 @@
         <v>236</v>
       </c>
       <c r="B236">
-        <v>30.51113990290567</v>
+        <v>32.34832327090623</v>
       </c>
       <c r="C236">
         <v>0</v>
@@ -4166,7 +4229,7 @@
         <v>237</v>
       </c>
       <c r="B237">
-        <v>30.47747856800121</v>
+        <v>32.27996504537281</v>
       </c>
       <c r="C237">
         <v>0</v>
@@ -4177,7 +4240,7 @@
         <v>238</v>
       </c>
       <c r="B238">
-        <v>30.45733729458334</v>
+        <v>32.02443682088538</v>
       </c>
       <c r="C238">
         <v>0</v>
@@ -4188,7 +4251,7 @@
         <v>239</v>
       </c>
       <c r="B239">
-        <v>30.45044511774088</v>
+        <v>32.02332743471183</v>
       </c>
       <c r="C239">
         <v>0</v>
@@ -4199,7 +4262,7 @@
         <v>240</v>
       </c>
       <c r="B240">
-        <v>30.42371615732089</v>
+        <v>31.95227487049136</v>
       </c>
       <c r="C240">
         <v>0</v>
@@ -4210,7 +4273,7 @@
         <v>241</v>
       </c>
       <c r="B241">
-        <v>30.40252091452932</v>
+        <v>31.92355838309541</v>
       </c>
       <c r="C241">
         <v>0</v>
@@ -4221,7 +4284,7 @@
         <v>242</v>
       </c>
       <c r="B242">
-        <v>30.36704259129841</v>
+        <v>31.87963973666928</v>
       </c>
       <c r="C242">
         <v>0</v>
@@ -4232,7 +4295,7 @@
         <v>243</v>
       </c>
       <c r="B243">
-        <v>30.2649563187075</v>
+        <v>31.85833970733062</v>
       </c>
       <c r="C243">
         <v>0</v>
@@ -4243,7 +4306,7 @@
         <v>244</v>
       </c>
       <c r="B244">
-        <v>30.2507569167134</v>
+        <v>31.80368862979424</v>
       </c>
       <c r="C244">
         <v>0</v>
@@ -4254,7 +4317,7 @@
         <v>245</v>
       </c>
       <c r="B245">
-        <v>30.21193142275164</v>
+        <v>31.79148585685389</v>
       </c>
       <c r="C245">
         <v>0</v>
@@ -4265,7 +4328,7 @@
         <v>246</v>
       </c>
       <c r="B246">
-        <v>30.15049173122608</v>
+        <v>31.78978059065292</v>
       </c>
       <c r="C246">
         <v>0</v>
@@ -4276,7 +4339,7 @@
         <v>247</v>
       </c>
       <c r="B247">
-        <v>30.13926925402488</v>
+        <v>31.7528401926003</v>
       </c>
       <c r="C247">
         <v>0</v>
@@ -4287,7 +4350,7 @@
         <v>248</v>
       </c>
       <c r="B248">
-        <v>30.07692070662027</v>
+        <v>31.72068880951278</v>
       </c>
       <c r="C248">
         <v>0</v>
@@ -4298,7 +4361,7 @@
         <v>249</v>
       </c>
       <c r="B249">
-        <v>30.04311207125401</v>
+        <v>31.71588934832753</v>
       </c>
       <c r="C249">
         <v>0</v>
@@ -4309,7 +4372,7 @@
         <v>250</v>
       </c>
       <c r="B250">
-        <v>30.03662899436986</v>
+        <v>31.68444780092799</v>
       </c>
       <c r="C250">
         <v>0</v>
@@ -4320,7 +4383,7 @@
         <v>251</v>
       </c>
       <c r="B251">
-        <v>30.00818268459004</v>
+        <v>31.6775546054852</v>
       </c>
       <c r="C251">
         <v>0</v>
@@ -4331,7 +4394,7 @@
         <v>252</v>
       </c>
       <c r="B252">
-        <v>29.96595930121415</v>
+        <v>31.64867716278572</v>
       </c>
       <c r="C252">
         <v>0</v>
@@ -4342,7 +4405,7 @@
         <v>253</v>
       </c>
       <c r="B253">
-        <v>29.94574812957957</v>
+        <v>31.55493631511971</v>
       </c>
       <c r="C253">
         <v>0</v>
@@ -4353,7 +4416,7 @@
         <v>254</v>
       </c>
       <c r="B254">
-        <v>29.87667350331255</v>
+        <v>31.54848515761798</v>
       </c>
       <c r="C254">
         <v>0</v>
@@ -4364,7 +4427,7 @@
         <v>255</v>
       </c>
       <c r="B255">
-        <v>29.80069167104784</v>
+        <v>31.39298181895798</v>
       </c>
       <c r="C255">
         <v>0</v>
@@ -4375,7 +4438,7 @@
         <v>256</v>
       </c>
       <c r="B256">
-        <v>29.75455356503101</v>
+        <v>31.36474379625039</v>
       </c>
       <c r="C256">
         <v>0</v>
@@ -4386,7 +4449,7 @@
         <v>257</v>
       </c>
       <c r="B257">
-        <v>29.69428080470154</v>
+        <v>31.36159006668894</v>
       </c>
       <c r="C257">
         <v>0</v>
@@ -4397,7 +4460,7 @@
         <v>258</v>
       </c>
       <c r="B258">
-        <v>29.66812306675207</v>
+        <v>31.32297516203609</v>
       </c>
       <c r="C258">
         <v>0</v>
@@ -4408,7 +4471,7 @@
         <v>259</v>
       </c>
       <c r="B259">
-        <v>29.56595335831538</v>
+        <v>31.30167481738965</v>
       </c>
       <c r="C259">
         <v>0</v>
@@ -4419,7 +4482,7 @@
         <v>260</v>
       </c>
       <c r="B260">
-        <v>29.44291779667445</v>
+        <v>31.17579219756496</v>
       </c>
       <c r="C260">
         <v>0</v>
@@ -4430,7 +4493,7 @@
         <v>261</v>
       </c>
       <c r="B261">
-        <v>29.30007784165978</v>
+        <v>31.0594704888402</v>
       </c>
       <c r="C261">
         <v>0</v>
@@ -4441,7 +4504,7 @@
         <v>262</v>
       </c>
       <c r="B262">
-        <v>29.23593064872924</v>
+        <v>31.00708862017797</v>
       </c>
       <c r="C262">
         <v>0</v>
@@ -4452,7 +4515,7 @@
         <v>263</v>
       </c>
       <c r="B263">
-        <v>28.85134663575688</v>
+        <v>30.96629338944696</v>
       </c>
       <c r="C263">
         <v>0</v>
@@ -4463,7 +4526,7 @@
         <v>264</v>
       </c>
       <c r="B264">
-        <v>28.77446484385651</v>
+        <v>30.86235496745421</v>
       </c>
       <c r="C264">
         <v>0</v>
@@ -4474,7 +4537,7 @@
         <v>265</v>
       </c>
       <c r="B265">
-        <v>28.68870754150446</v>
+        <v>30.83265570398763</v>
       </c>
       <c r="C265">
         <v>0</v>
@@ -4485,7 +4548,7 @@
         <v>266</v>
       </c>
       <c r="B266">
-        <v>28.47214801531584</v>
+        <v>30.7093087003909</v>
       </c>
       <c r="C266">
         <v>0</v>
@@ -4496,7 +4559,7 @@
         <v>267</v>
       </c>
       <c r="B267">
-        <v>28.44425924871021</v>
+        <v>30.47680541596299</v>
       </c>
       <c r="C267">
         <v>0</v>
@@ -4507,7 +4570,7 @@
         <v>268</v>
       </c>
       <c r="B268">
-        <v>28.02446467745432</v>
+        <v>30.35041893364101</v>
       </c>
       <c r="C268">
         <v>0</v>
@@ -4518,7 +4581,7 @@
         <v>269</v>
       </c>
       <c r="B269">
-        <v>26.26801204269954</v>
+        <v>30.34328080386636</v>
       </c>
       <c r="C269">
         <v>0</v>
@@ -4529,7 +4592,7 @@
         <v>270</v>
       </c>
       <c r="B270">
-        <v>25.233670222357</v>
+        <v>30.23181510985124</v>
       </c>
       <c r="C270">
         <v>0</v>
@@ -4540,7 +4603,7 @@
         <v>271</v>
       </c>
       <c r="B271">
-        <v>25.01475035228733</v>
+        <v>30.11100997280396</v>
       </c>
       <c r="C271">
         <v>0</v>
@@ -4551,7 +4614,7 @@
         <v>272</v>
       </c>
       <c r="B272">
-        <v>23.56298144385847</v>
+        <v>29.68905372568958</v>
       </c>
       <c r="C272">
         <v>0</v>
@@ -4562,7 +4625,7 @@
         <v>273</v>
       </c>
       <c r="B273">
-        <v>23.49046374978772</v>
+        <v>29.55752840913964</v>
       </c>
       <c r="C273">
         <v>0</v>
@@ -4573,7 +4636,7 @@
         <v>274</v>
       </c>
       <c r="B274">
-        <v>23.39255394323628</v>
+        <v>29.25463463507688</v>
       </c>
       <c r="C274">
         <v>0</v>
@@ -4584,7 +4647,7 @@
         <v>275</v>
       </c>
       <c r="B275">
-        <v>22.86894679632922</v>
+        <v>29.18695306300019</v>
       </c>
       <c r="C275">
         <v>0</v>
@@ -4595,7 +4658,7 @@
         <v>276</v>
       </c>
       <c r="B276">
-        <v>22.59125174954174</v>
+        <v>29.14088066672175</v>
       </c>
       <c r="C276">
         <v>0</v>
@@ -4606,10 +4669,10 @@
         <v>277</v>
       </c>
       <c r="B277">
-        <v>22.23341868117373</v>
+        <v>29.10914324190436</v>
       </c>
       <c r="C277">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -4617,10 +4680,10 @@
         <v>278</v>
       </c>
       <c r="B278">
-        <v>22.2179578741881</v>
+        <v>29.0589018112729</v>
       </c>
       <c r="C278">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -4628,10 +4691,10 @@
         <v>279</v>
       </c>
       <c r="B279">
-        <v>21.44050916119366</v>
+        <v>29.05191284977465</v>
       </c>
       <c r="C279">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -4639,10 +4702,10 @@
         <v>280</v>
       </c>
       <c r="B280">
-        <v>21.18484748186417</v>
+        <v>28.95759893361997</v>
       </c>
       <c r="C280">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -4650,10 +4713,10 @@
         <v>281</v>
       </c>
       <c r="B281">
-        <v>21.1687561547139</v>
+        <v>28.8562115254082</v>
       </c>
       <c r="C281">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -4661,10 +4724,10 @@
         <v>282</v>
       </c>
       <c r="B282">
-        <v>21.10485018683404</v>
+        <v>28.82030214424883</v>
       </c>
       <c r="C282">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -4672,10 +4735,10 @@
         <v>283</v>
       </c>
       <c r="B283">
-        <v>20.90694916995098</v>
+        <v>28.78694628155521</v>
       </c>
       <c r="C283">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -4683,10 +4746,10 @@
         <v>284</v>
       </c>
       <c r="B284">
-        <v>20.89713339722483</v>
+        <v>28.72831006079986</v>
       </c>
       <c r="C284">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -4694,10 +4757,10 @@
         <v>285</v>
       </c>
       <c r="B285">
-        <v>20.87899530393914</v>
+        <v>28.63617788043249</v>
       </c>
       <c r="C285">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -4705,10 +4768,10 @@
         <v>286</v>
       </c>
       <c r="B286">
-        <v>20.74117248588127</v>
+        <v>28.6154277784093</v>
       </c>
       <c r="C286">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -4716,10 +4779,10 @@
         <v>287</v>
       </c>
       <c r="B287">
-        <v>20.65463212579933</v>
+        <v>28.60225521297573</v>
       </c>
       <c r="C287">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -4727,10 +4790,10 @@
         <v>288</v>
       </c>
       <c r="B288">
-        <v>20.59458113573799</v>
+        <v>28.59249136331333</v>
       </c>
       <c r="C288">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -4738,10 +4801,10 @@
         <v>289</v>
       </c>
       <c r="B289">
-        <v>20.496304922634</v>
+        <v>28.47115814558645</v>
       </c>
       <c r="C289">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -4749,10 +4812,10 @@
         <v>290</v>
       </c>
       <c r="B290">
-        <v>20.34472147131418</v>
+        <v>28.46959376395336</v>
       </c>
       <c r="C290">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -4760,10 +4823,10 @@
         <v>291</v>
       </c>
       <c r="B291">
-        <v>19.72680904306814</v>
+        <v>28.42178677124086</v>
       </c>
       <c r="C291">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -4771,10 +4834,10 @@
         <v>292</v>
       </c>
       <c r="B292">
-        <v>19.52871461880824</v>
+        <v>28.32967000888492</v>
       </c>
       <c r="C292">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -4782,10 +4845,10 @@
         <v>293</v>
       </c>
       <c r="B293">
-        <v>19.42480999734885</v>
+        <v>28.29682874699569</v>
       </c>
       <c r="C293">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -4793,10 +4856,10 @@
         <v>294</v>
       </c>
       <c r="B294">
-        <v>19.37649079022938</v>
+        <v>28.15896212569655</v>
       </c>
       <c r="C294">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -4804,10 +4867,10 @@
         <v>295</v>
       </c>
       <c r="B295">
-        <v>18.89345849195278</v>
+        <v>28.13814813823824</v>
       </c>
       <c r="C295">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -4815,10 +4878,10 @@
         <v>296</v>
       </c>
       <c r="B296">
-        <v>18.63270911105965</v>
+        <v>28.06603986080967</v>
       </c>
       <c r="C296">
-        <v>3e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -4826,10 +4889,10 @@
         <v>297</v>
       </c>
       <c r="B297">
-        <v>18.4211011708412</v>
+        <v>27.97557077213991</v>
       </c>
       <c r="C297">
-        <v>3e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -4837,10 +4900,10 @@
         <v>298</v>
       </c>
       <c r="B298">
-        <v>18.41247920284632</v>
+        <v>27.93655537979438</v>
       </c>
       <c r="C298">
-        <v>3e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -4848,10 +4911,10 @@
         <v>299</v>
       </c>
       <c r="B299">
-        <v>18.41179903798526</v>
+        <v>27.88039966087253</v>
       </c>
       <c r="C299">
-        <v>3e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -4859,10 +4922,10 @@
         <v>300</v>
       </c>
       <c r="B300">
-        <v>17.58242490176085</v>
+        <v>27.86163545594154</v>
       </c>
       <c r="C300">
-        <v>4e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -4870,10 +4933,10 @@
         <v>301</v>
       </c>
       <c r="B301">
-        <v>17.37433069758556</v>
+        <v>27.82475036683014</v>
       </c>
       <c r="C301">
-        <v>5e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -4881,10 +4944,10 @@
         <v>302</v>
       </c>
       <c r="B302">
-        <v>17.25545654236728</v>
+        <v>27.78079369068247</v>
       </c>
       <c r="C302">
-        <v>5e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -4892,10 +4955,10 @@
         <v>303</v>
       </c>
       <c r="B303">
-        <v>17.21900106519652</v>
+        <v>27.74275330226999</v>
       </c>
       <c r="C303">
-        <v>5e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -4903,10 +4966,10 @@
         <v>304</v>
       </c>
       <c r="B304">
-        <v>17.20571309499027</v>
+        <v>27.67894092065447</v>
       </c>
       <c r="C304">
-        <v>5e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -4914,10 +4977,10 @@
         <v>305</v>
       </c>
       <c r="B305">
-        <v>17.01635399441781</v>
+        <v>27.67839245779503</v>
       </c>
       <c r="C305">
-        <v>6e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -4925,10 +4988,10 @@
         <v>306</v>
       </c>
       <c r="B306">
-        <v>16.83163116480231</v>
+        <v>27.63566340345001</v>
       </c>
       <c r="C306">
-        <v>6e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -4936,10 +4999,10 @@
         <v>307</v>
       </c>
       <c r="B307">
-        <v>16.83051393475719</v>
+        <v>27.57357868292723</v>
       </c>
       <c r="C307">
-        <v>6e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -4947,10 +5010,10 @@
         <v>308</v>
       </c>
       <c r="B308">
-        <v>16.82937772101919</v>
+        <v>27.46013460644748</v>
       </c>
       <c r="C308">
-        <v>6e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -4958,10 +5021,10 @@
         <v>309</v>
       </c>
       <c r="B309">
-        <v>16.82833065043085</v>
+        <v>26.31502969209517</v>
       </c>
       <c r="C309">
-        <v>6e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -4969,10 +5032,10 @@
         <v>310</v>
       </c>
       <c r="B310">
-        <v>16.82826070975691</v>
+        <v>25.83602414749918</v>
       </c>
       <c r="C310">
-        <v>6e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -4980,10 +5043,10 @@
         <v>311</v>
       </c>
       <c r="B311">
-        <v>16.82819431199989</v>
+        <v>25.54000694652548</v>
       </c>
       <c r="C311">
-        <v>6e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -4991,10 +5054,10 @@
         <v>312</v>
       </c>
       <c r="B312">
-        <v>16.8276659615243</v>
+        <v>24.5851376491336</v>
       </c>
       <c r="C312">
-        <v>6e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -5002,10 +5065,10 @@
         <v>313</v>
       </c>
       <c r="B313">
-        <v>16.8276659615243</v>
+        <v>24.3967398757147</v>
       </c>
       <c r="C313">
-        <v>6e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -5013,10 +5076,10 @@
         <v>314</v>
       </c>
       <c r="B314">
-        <v>16.71302762848268</v>
+        <v>23.45115983802213</v>
       </c>
       <c r="C314">
-        <v>6.999999999999999e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -5024,10 +5087,10 @@
         <v>315</v>
       </c>
       <c r="B315">
-        <v>16.58833744246095</v>
+        <v>23.29039330557582</v>
       </c>
       <c r="C315">
-        <v>6.999999999999999e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -5035,10 +5098,10 @@
         <v>316</v>
       </c>
       <c r="B316">
-        <v>16.18005565695218</v>
+        <v>22.93767345589043</v>
       </c>
       <c r="C316">
-        <v>9.000000000000001e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -5046,10 +5109,10 @@
         <v>317</v>
       </c>
       <c r="B317">
-        <v>16.17815038693436</v>
+        <v>22.56096594246405</v>
       </c>
       <c r="C317">
-        <v>9.000000000000001e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -5057,10 +5120,10 @@
         <v>318</v>
       </c>
       <c r="B318">
-        <v>16.17740394964212</v>
+        <v>22.5346879925297</v>
       </c>
       <c r="C318">
-        <v>9.000000000000001e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -5068,10 +5131,10 @@
         <v>319</v>
       </c>
       <c r="B319">
-        <v>16.17611229564074</v>
+        <v>22.51217187262067</v>
       </c>
       <c r="C319">
-        <v>9.000000000000001e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -5079,10 +5142,10 @@
         <v>320</v>
       </c>
       <c r="B320">
-        <v>16.17360966534718</v>
+        <v>21.57099659480325</v>
       </c>
       <c r="C320">
-        <v>9.000000000000001e-05</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -5090,10 +5153,10 @@
         <v>321</v>
       </c>
       <c r="B321">
-        <v>15.64433304424701</v>
+        <v>21.40998592899416</v>
       </c>
       <c r="C321">
-        <v>0.00011</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -5101,10 +5164,10 @@
         <v>322</v>
       </c>
       <c r="B322">
-        <v>15.64433304424701</v>
+        <v>20.86313153301379</v>
       </c>
       <c r="C322">
-        <v>0.00011</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -5112,10 +5175,10 @@
         <v>323</v>
       </c>
       <c r="B323">
-        <v>15.47239148166069</v>
+        <v>20.08823626716</v>
       </c>
       <c r="C323">
-        <v>0.00012</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -5123,10 +5186,10 @@
         <v>324</v>
       </c>
       <c r="B324">
-        <v>15.45351620528769</v>
+        <v>19.91739583860903</v>
       </c>
       <c r="C324">
-        <v>0.00012</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -5134,10 +5197,10 @@
         <v>325</v>
       </c>
       <c r="B325">
-        <v>14.8183107602917</v>
+        <v>19.44220141594557</v>
       </c>
       <c r="C325">
-        <v>0.00017</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -5145,10 +5208,10 @@
         <v>326</v>
       </c>
       <c r="B326">
-        <v>14.69716914070479</v>
+        <v>19.19390861846695</v>
       </c>
       <c r="C326">
-        <v>0.00018</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -5156,10 +5219,10 @@
         <v>327</v>
       </c>
       <c r="B327">
-        <v>14.69716914070479</v>
+        <v>19.16785570618344</v>
       </c>
       <c r="C327">
-        <v>0.00018</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -5167,10 +5230,10 @@
         <v>328</v>
       </c>
       <c r="B328">
-        <v>14.69447732927811</v>
+        <v>17.81350813898521</v>
       </c>
       <c r="C328">
-        <v>0.00018</v>
+        <v>4e-05</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -5178,10 +5241,10 @@
         <v>329</v>
       </c>
       <c r="B329">
-        <v>14.61802115494686</v>
+        <v>17.42056739200283</v>
       </c>
       <c r="C329">
-        <v>0.00019</v>
+        <v>5e-05</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -5189,10 +5252,10 @@
         <v>330</v>
       </c>
       <c r="B330">
-        <v>14.53856398464692</v>
+        <v>17.36996191689</v>
       </c>
       <c r="C330">
-        <v>0.00019</v>
+        <v>5e-05</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -5200,10 +5263,10 @@
         <v>331</v>
       </c>
       <c r="B331">
-        <v>14.40723345814782</v>
+        <v>16.7839768616915</v>
       </c>
       <c r="C331">
-        <v>0.00021</v>
+        <v>6.999999999999999e-05</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -5211,10 +5274,10 @@
         <v>332</v>
       </c>
       <c r="B332">
-        <v>14.40723345814782</v>
+        <v>16.70522594216836</v>
       </c>
       <c r="C332">
-        <v>0.00021</v>
+        <v>6.999999999999999e-05</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -5222,10 +5285,10 @@
         <v>333</v>
       </c>
       <c r="B333">
-        <v>14.36039649187667</v>
+        <v>16.63644904029099</v>
       </c>
       <c r="C333">
-        <v>0.00021</v>
+        <v>6.999999999999999e-05</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -5233,10 +5296,10 @@
         <v>334</v>
       </c>
       <c r="B334">
-        <v>14.25101775402829</v>
+        <v>16.5981761528546</v>
       </c>
       <c r="C334">
-        <v>0.00022</v>
+        <v>6.999999999999999e-05</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -5244,10 +5307,10 @@
         <v>335</v>
       </c>
       <c r="B335">
-        <v>13.33248809808268</v>
+        <v>16.10638992487796</v>
       </c>
       <c r="C335">
-        <v>0.00035</v>
+        <v>9.000000000000001e-05</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -5255,10 +5318,10 @@
         <v>336</v>
       </c>
       <c r="B336">
-        <v>13.30077178805182</v>
+        <v>16.09659549950954</v>
       </c>
       <c r="C336">
-        <v>0.00035</v>
+        <v>9.000000000000001e-05</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -5266,10 +5329,10 @@
         <v>337</v>
       </c>
       <c r="B337">
-        <v>13.17079674172215</v>
+        <v>16.07820723601085</v>
       </c>
       <c r="C337">
-        <v>0.00038</v>
+        <v>9.000000000000001e-05</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -5277,10 +5340,10 @@
         <v>338</v>
       </c>
       <c r="B338">
-        <v>13.12935303268236</v>
+        <v>16.07722400298127</v>
       </c>
       <c r="C338">
-        <v>0.00039</v>
+        <v>9.000000000000001e-05</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -5288,10 +5351,10 @@
         <v>339</v>
       </c>
       <c r="B339">
-        <v>13.12739365037925</v>
+        <v>16.07621756554695</v>
       </c>
       <c r="C339">
-        <v>0.00039</v>
+        <v>9.000000000000001e-05</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -5299,10 +5362,10 @@
         <v>340</v>
       </c>
       <c r="B340">
-        <v>13.11727806423298</v>
+        <v>16.0756835766981</v>
       </c>
       <c r="C340">
-        <v>0.00039</v>
+        <v>9.000000000000001e-05</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -5310,10 +5373,10 @@
         <v>341</v>
       </c>
       <c r="B341">
-        <v>13.07561930243742</v>
+        <v>16.07555450512501</v>
       </c>
       <c r="C341">
-        <v>0.0004</v>
+        <v>9.000000000000001e-05</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -5321,10 +5384,10 @@
         <v>342</v>
       </c>
       <c r="B342">
-        <v>12.98879470658258</v>
+        <v>16.07543159265049</v>
       </c>
       <c r="C342">
-        <v>0.00041</v>
+        <v>9.000000000000001e-05</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -5332,10 +5395,10 @@
         <v>343</v>
       </c>
       <c r="B343">
-        <v>12.81093575911045</v>
+        <v>16.07490415719741</v>
       </c>
       <c r="C343">
-        <v>0.00045</v>
+        <v>9.000000000000001e-05</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -5343,10 +5406,10 @@
         <v>344</v>
       </c>
       <c r="B344">
-        <v>12.79444591520517</v>
+        <v>16.07490415719741</v>
       </c>
       <c r="C344">
-        <v>0.00046</v>
+        <v>9.000000000000001e-05</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -5354,10 +5417,10 @@
         <v>345</v>
       </c>
       <c r="B345">
-        <v>12.78026939145878</v>
+        <v>15.9982640878803</v>
       </c>
       <c r="C345">
-        <v>0.00046</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -5365,10 +5428,10 @@
         <v>346</v>
       </c>
       <c r="B346">
-        <v>12.69857205414193</v>
+        <v>15.97880029156281</v>
       </c>
       <c r="C346">
-        <v>0.00048</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -5376,10 +5439,10 @@
         <v>347</v>
       </c>
       <c r="B347">
-        <v>12.60392832876803</v>
+        <v>15.8078706933254</v>
       </c>
       <c r="C347">
-        <v>0.0005</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -5387,10 +5450,10 @@
         <v>348</v>
       </c>
       <c r="B348">
-        <v>12.50771862640623</v>
+        <v>15.79627325888347</v>
       </c>
       <c r="C348">
-        <v>0.00053</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -5398,10 +5461,10 @@
         <v>349</v>
       </c>
       <c r="B349">
-        <v>12.50771862640623</v>
+        <v>15.79408752697304</v>
       </c>
       <c r="C349">
-        <v>0.00053</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -5409,10 +5472,10 @@
         <v>350</v>
       </c>
       <c r="B350">
-        <v>12.47960449638905</v>
+        <v>15.78457362655861</v>
       </c>
       <c r="C350">
-        <v>0.00053</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -5420,10 +5483,10 @@
         <v>351</v>
       </c>
       <c r="B351">
-        <v>12.31468021855764</v>
+        <v>15.78449144364863</v>
       </c>
       <c r="C351">
-        <v>0.00058</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -5431,10 +5494,10 @@
         <v>352</v>
       </c>
       <c r="B352">
-        <v>12.23196606700223</v>
+        <v>15.65676970379455</v>
       </c>
       <c r="C352">
-        <v>0.0005999999999999999</v>
+        <v>0.00012</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -5442,10 +5505,10 @@
         <v>353</v>
       </c>
       <c r="B353">
-        <v>12.05497441886358</v>
+        <v>15.42471443593527</v>
       </c>
       <c r="C353">
-        <v>0.00066</v>
+        <v>0.00013</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -5453,10 +5516,10 @@
         <v>354</v>
       </c>
       <c r="B354">
-        <v>12.04716157212217</v>
+        <v>15.1288427771181</v>
       </c>
       <c r="C354">
-        <v>0.00066</v>
+        <v>0.00015</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -5464,10 +5527,10 @@
         <v>355</v>
       </c>
       <c r="B355">
-        <v>11.93766626294516</v>
+        <v>15.1288427771181</v>
       </c>
       <c r="C355">
-        <v>0.0007</v>
+        <v>0.00015</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -5475,10 +5538,10 @@
         <v>356</v>
       </c>
       <c r="B356">
-        <v>11.86841005350948</v>
+        <v>14.88050340003798</v>
       </c>
       <c r="C356">
-        <v>0.00072</v>
+        <v>0.00017</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -5486,10 +5549,10 @@
         <v>357</v>
       </c>
       <c r="B357">
-        <v>11.80982286026287</v>
+        <v>14.87417347488496</v>
       </c>
       <c r="C357">
-        <v>0.00074</v>
+        <v>0.00017</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -5497,10 +5560,10 @@
         <v>358</v>
       </c>
       <c r="B358">
-        <v>11.80513324611242</v>
+        <v>14.87417347488496</v>
       </c>
       <c r="C358">
-        <v>0.00075</v>
+        <v>0.00017</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -5508,10 +5571,10 @@
         <v>359</v>
       </c>
       <c r="B359">
-        <v>11.7541495701265</v>
+        <v>14.66172059058476</v>
       </c>
       <c r="C359">
-        <v>0.00077</v>
+        <v>0.00019</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -5519,10 +5582,10 @@
         <v>360</v>
       </c>
       <c r="B360">
-        <v>11.45663823176995</v>
+        <v>14.6467397038167</v>
       </c>
       <c r="C360">
-        <v>0.0008899999999999999</v>
+        <v>0.00019</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -5530,10 +5593,10 @@
         <v>361</v>
       </c>
       <c r="B361">
-        <v>11.42333954667582</v>
+        <v>14.43343254166996</v>
       </c>
       <c r="C361">
-        <v>0.0009</v>
+        <v>0.00021</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -5541,10 +5604,10 @@
         <v>362</v>
       </c>
       <c r="B362">
-        <v>10.99133936034793</v>
+        <v>14.38847895540806</v>
       </c>
       <c r="C362">
-        <v>0.00112</v>
+        <v>0.00021</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -5552,10 +5615,10 @@
         <v>363</v>
       </c>
       <c r="B363">
-        <v>10.85792305773501</v>
+        <v>14.3805079078427</v>
       </c>
       <c r="C363">
-        <v>0.0012</v>
+        <v>0.00021</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -5563,10 +5626,10 @@
         <v>364</v>
       </c>
       <c r="B364">
-        <v>10.67980360175438</v>
+        <v>14.31595539624696</v>
       </c>
       <c r="C364">
-        <v>0.00132</v>
+        <v>0.00022</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -5574,10 +5637,10 @@
         <v>365</v>
       </c>
       <c r="B365">
-        <v>10.44971026329894</v>
+        <v>14.31595539624696</v>
       </c>
       <c r="C365">
-        <v>0.00148</v>
+        <v>0.00022</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -5585,10 +5648,10 @@
         <v>366</v>
       </c>
       <c r="B366">
-        <v>10.35191575705142</v>
+        <v>14.06237482322853</v>
       </c>
       <c r="C366">
-        <v>0.00156</v>
+        <v>0.00025</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -5596,10 +5659,10 @@
         <v>367</v>
       </c>
       <c r="B367">
-        <v>9.764280954433422</v>
+        <v>14.06237482322853</v>
       </c>
       <c r="C367">
-        <v>0.0021</v>
+        <v>0.00025</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -5607,10 +5670,10 @@
         <v>368</v>
       </c>
       <c r="B368">
-        <v>9.701770544905216</v>
+        <v>13.95289033909233</v>
       </c>
       <c r="C368">
-        <v>0.00217</v>
+        <v>0.00026</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -5618,10 +5681,10 @@
         <v>369</v>
       </c>
       <c r="B369">
-        <v>9.701420722921821</v>
+        <v>13.85863097987133</v>
       </c>
       <c r="C369">
-        <v>0.00217</v>
+        <v>0.00028</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -5629,10 +5692,10 @@
         <v>370</v>
       </c>
       <c r="B370">
-        <v>9.65276737890253</v>
+        <v>13.6105075576982</v>
       </c>
       <c r="C370">
-        <v>0.00222</v>
+        <v>0.00031</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -5640,10 +5703,10 @@
         <v>371</v>
       </c>
       <c r="B371">
-        <v>9.471929966359671</v>
+        <v>13.54430314153451</v>
       </c>
       <c r="C371">
-        <v>0.00244</v>
+        <v>0.00032</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -5651,10 +5714,10 @@
         <v>372</v>
       </c>
       <c r="B372">
-        <v>9.469242578486073</v>
+        <v>13.46015926696818</v>
       </c>
       <c r="C372">
-        <v>0.00244</v>
+        <v>0.00034</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -5662,10 +5725,10 @@
         <v>373</v>
       </c>
       <c r="B373">
-        <v>9.344083597658773</v>
+        <v>13.42113930461919</v>
       </c>
       <c r="C373">
-        <v>0.00261</v>
+        <v>0.00034</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -5673,10 +5736,10 @@
         <v>374</v>
       </c>
       <c r="B374">
-        <v>9.055773661915323</v>
+        <v>13.40044559285364</v>
       </c>
       <c r="C374">
-        <v>0.00303</v>
+        <v>0.00035</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -5684,10 +5747,10 @@
         <v>375</v>
       </c>
       <c r="B375">
-        <v>8.995203370107008</v>
+        <v>13.3588895236615</v>
       </c>
       <c r="C375">
-        <v>0.00312</v>
+        <v>0.00035</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -5695,10 +5758,10 @@
         <v>376</v>
       </c>
       <c r="B376">
-        <v>8.750754222038452</v>
+        <v>13.27701070616037</v>
       </c>
       <c r="C376">
-        <v>0.00355</v>
+        <v>0.00037</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -5706,10 +5769,10 @@
         <v>377</v>
       </c>
       <c r="B377">
-        <v>8.728446832091061</v>
+        <v>13.27321363569241</v>
       </c>
       <c r="C377">
-        <v>0.00359</v>
+        <v>0.00037</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -5717,10 +5780,10 @@
         <v>378</v>
       </c>
       <c r="B378">
-        <v>8.621922089945485</v>
+        <v>13.26662107929102</v>
       </c>
       <c r="C378">
-        <v>0.00379</v>
+        <v>0.00037</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -5728,10 +5791,10 @@
         <v>379</v>
       </c>
       <c r="B379">
-        <v>8.555467111695101</v>
+        <v>13.17732851386621</v>
       </c>
       <c r="C379">
-        <v>0.00393</v>
+        <v>0.00039</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -5739,10 +5802,10 @@
         <v>380</v>
       </c>
       <c r="B380">
-        <v>8.462855343517925</v>
+        <v>13.14020530155326</v>
       </c>
       <c r="C380">
-        <v>0.00412</v>
+        <v>0.00039</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -5750,10 +5813,10 @@
         <v>381</v>
       </c>
       <c r="B381">
-        <v>8.460708815963713</v>
+        <v>13.12830362803342</v>
       </c>
       <c r="C381">
-        <v>0.00413</v>
+        <v>0.00039</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -5761,10 +5824,10 @@
         <v>382</v>
       </c>
       <c r="B382">
-        <v>8.460708815963713</v>
+        <v>13.10179963215761</v>
       </c>
       <c r="C382">
-        <v>0.00413</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -5772,10 +5835,10 @@
         <v>383</v>
       </c>
       <c r="B383">
-        <v>8.457700054724615</v>
+        <v>12.80595437043998</v>
       </c>
       <c r="C383">
-        <v>0.00413</v>
+        <v>0.00046</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -5783,10 +5846,10 @@
         <v>384</v>
       </c>
       <c r="B384">
-        <v>8.451299340010447</v>
+        <v>12.64326370106731</v>
       </c>
       <c r="C384">
-        <v>0.00415</v>
+        <v>0.0005</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -5794,10 +5857,10 @@
         <v>385</v>
       </c>
       <c r="B385">
-        <v>7.948703576564631</v>
+        <v>12.61352111458077</v>
       </c>
       <c r="C385">
-        <v>0.0054</v>
+        <v>0.00051</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -5805,10 +5868,10 @@
         <v>386</v>
       </c>
       <c r="B386">
-        <v>7.947055774589044</v>
+        <v>12.60845642255543</v>
       </c>
       <c r="C386">
-        <v>0.0054</v>
+        <v>0.00051</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -5816,10 +5879,10 @@
         <v>387</v>
       </c>
       <c r="B387">
-        <v>7.940442101966455</v>
+        <v>12.06041548454801</v>
       </c>
       <c r="C387">
-        <v>0.00542</v>
+        <v>0.00067</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -5827,10 +5890,10 @@
         <v>388</v>
       </c>
       <c r="B388">
-        <v>7.820189258776041</v>
+        <v>11.96912717784077</v>
       </c>
       <c r="C388">
-        <v>0.00578</v>
+        <v>0.0007</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -5838,10 +5901,10 @@
         <v>389</v>
       </c>
       <c r="B389">
-        <v>7.80157243959863</v>
+        <v>11.56265256913263</v>
       </c>
       <c r="C389">
-        <v>0.00583</v>
+        <v>0.00086</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -5849,10 +5912,10 @@
         <v>390</v>
       </c>
       <c r="B390">
-        <v>7.676513835153519</v>
+        <v>10.94908582394838</v>
       </c>
       <c r="C390">
-        <v>0.00623</v>
+        <v>0.00117</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -5860,10 +5923,10 @@
         <v>391</v>
       </c>
       <c r="B391">
-        <v>7.668247005175702</v>
+        <v>10.6621337383961</v>
       </c>
       <c r="C391">
-        <v>0.00626</v>
+        <v>0.00135</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -5871,10 +5934,10 @@
         <v>392</v>
       </c>
       <c r="B392">
-        <v>7.486592404184768</v>
+        <v>10.31061494713653</v>
       </c>
       <c r="C392">
-        <v>0.00689</v>
+        <v>0.00161</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -5882,10 +5945,10 @@
         <v>393</v>
       </c>
       <c r="B393">
-        <v>7.330051423566701</v>
+        <v>10.2416230202595</v>
       </c>
       <c r="C393">
-        <v>0.00749</v>
+        <v>0.00167</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -5893,10 +5956,10 @@
         <v>394</v>
       </c>
       <c r="B394">
-        <v>7.155271169417392</v>
+        <v>9.998589700694744</v>
       </c>
       <c r="C394">
-        <v>0.00822</v>
+        <v>0.00189</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -5904,10 +5967,10 @@
         <v>395</v>
       </c>
       <c r="B395">
-        <v>7.146557440061699</v>
+        <v>9.904581151694043</v>
       </c>
       <c r="C395">
-        <v>0.00826</v>
+        <v>0.00198</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -5915,10 +5978,241 @@
         <v>396</v>
       </c>
       <c r="B396">
-        <v>6.979404684792737</v>
+        <v>9.885517594313082</v>
       </c>
       <c r="C396">
-        <v>0.00903</v>
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B397">
+        <v>9.252866676760959</v>
+      </c>
+      <c r="C397">
+        <v>0.00276</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B398">
+        <v>9.252522269905858</v>
+      </c>
+      <c r="C398">
+        <v>0.00277</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B399">
+        <v>9.234259334053856</v>
+      </c>
+      <c r="C399">
+        <v>0.00279</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B400">
+        <v>9.182232238084762</v>
+      </c>
+      <c r="C400">
+        <v>0.00287</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B401">
+        <v>9.175566277596577</v>
+      </c>
+      <c r="C401">
+        <v>0.00288</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B402">
+        <v>9.126555238539254</v>
+      </c>
+      <c r="C402">
+        <v>0.00295</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B403">
+        <v>9.117351342839198</v>
+      </c>
+      <c r="C403">
+        <v>0.00296</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B404">
+        <v>8.759844959736382</v>
+      </c>
+      <c r="C404">
+        <v>0.00357</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B405">
+        <v>8.710081879630774</v>
+      </c>
+      <c r="C405">
+        <v>0.00366</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B406">
+        <v>8.609979814296793</v>
+      </c>
+      <c r="C406">
+        <v>0.00386</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B407">
+        <v>8.607623534545937</v>
+      </c>
+      <c r="C407">
+        <v>0.00386</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B408">
+        <v>8.209156669741606</v>
+      </c>
+      <c r="C408">
+        <v>0.00475</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
+      <c r="A409" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B409">
+        <v>7.730670865799172</v>
+      </c>
+      <c r="C409">
+        <v>0.00611</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B410">
+        <v>7.729139018259747</v>
+      </c>
+      <c r="C410">
+        <v>0.00611</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B411">
+        <v>7.722818521298448</v>
+      </c>
+      <c r="C411">
+        <v>0.00613</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="A412" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B412">
+        <v>7.694363558667667</v>
+      </c>
+      <c r="C412">
+        <v>0.00622</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B413">
+        <v>7.648096195397611</v>
+      </c>
+      <c r="C413">
+        <v>0.00638</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="A414" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B414">
+        <v>7.565089459996827</v>
+      </c>
+      <c r="C414">
+        <v>0.00666</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="A415" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B415">
+        <v>7.565089459996827</v>
+      </c>
+      <c r="C415">
+        <v>0.00666</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B416">
+        <v>7.196266606842037</v>
+      </c>
+      <c r="C416">
+        <v>0.0081</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
+      <c r="A417" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B417">
+        <v>7.196266606842037</v>
+      </c>
+      <c r="C417">
+        <v>0.0081</v>
       </c>
     </row>
   </sheetData>
